--- a/biology/Médecine/Anthrax_staphylococcique/Anthrax_staphylococcique.xlsx
+++ b/biology/Médecine/Anthrax_staphylococcique/Anthrax_staphylococcique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthrax est une infection staphylococcique de l'appareil glandulaire pilosébacé, caractérisée par l'agglomération de plusieurs furoncles à tendance nécrosante. L'ensemble rouge vif est violacé à son sommet.
 L'anthrax siège généralement à la nuque. Il est une agglomération de furoncles formant une masse, une plaque inflammatoire, de consistance ligneuse, ayant tendance à l'extension et dont le pronostic présente une certaine gravité chez les diabétiques et les personnes âgées. À noter que l'anthrax de l'aile du nez présente une extrême gravité, par suite de l'embolie qu'il peut occasionner (thrombo-phlébite du sinus caverneux). Cette forme, rare, s'accompagne parfois de phénomènes graves : délire, fièvre, septicémie ; cette dernière forme évolutive de l'anthrax (perte de l'aile du nez) demande une intervention chirurgicale.
